--- a/xpdacq/tests/999999_sample.xlsx
+++ b/xpdacq/tests/999999_sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="990"/>
+    <workbookView xWindow="2500" yWindow="3020" windowWidth="25600" windowHeight="15460" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -749,7 +749,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/xpdacq/tests/999999_sample.xlsx
+++ b/xpdacq/tests/999999_sample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="3020" windowWidth="25600" windowHeight="15460" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
   <si>
     <t>Sample Name [required]</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>Bkgd Geometry</t>
-  </si>
-  <si>
     <t>cif name</t>
   </si>
   <si>
@@ -78,12 +75,6 @@
     <t xml:space="preserve"> (comma separated list of phases and atomic percent. Approximate is fine)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (comma separated list of memorable descriptors)</t>
-  </si>
-  <si>
-    <t>(for information purposes)</t>
-  </si>
-  <si>
     <t>(comma separated list of cif files for phases)</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t>setup</t>
   </si>
   <si>
-    <t>kapton_bkgd_1mmOD</t>
-  </si>
-  <si>
     <t>ICSD:53807</t>
   </si>
   <si>
@@ -129,18 +117,12 @@
     <t>Nickel standard for calibration.  Add more calibration standards as needed, tagging them as standard.</t>
   </si>
   <si>
-    <t>bkgd_kapton_1mmOD</t>
-  </si>
-  <si>
     <t>background</t>
   </si>
   <si>
     <t>Use these objects to measure your backgrounds.  Add more as needed tagging them as background.</t>
   </si>
   <si>
-    <t>bkgd_kapton_0.9mmOD</t>
-  </si>
-  <si>
     <t>Use these objects to measure your background</t>
   </si>
   <si>
@@ -216,9 +198,6 @@
     <t>FeF3(4,4'-bipyridyl)</t>
   </si>
   <si>
-    <t>FeF3C10H8N2</t>
-  </si>
-  <si>
     <t>ICSD:41120, CCDC:850926</t>
   </si>
   <si>
@@ -231,9 +210,6 @@
     <t>TPT_0.9MM</t>
   </si>
   <si>
-    <t>Co12O12C72H48N24</t>
-  </si>
-  <si>
     <t>zeolite</t>
   </si>
   <si>
@@ -300,9 +276,6 @@
     <t>Al2O3, Al(1-x)ScxN,</t>
   </si>
   <si>
-    <t>Film array on silicon substrate</t>
-  </si>
-  <si>
     <t>ScN.cif, Si_RT.cif</t>
   </si>
   <si>
@@ -324,23 +297,47 @@
     <t>ScN_on_Si_Pos3</t>
   </si>
   <si>
-    <t>bkgd_kapton_0.5mmOD.a.foo.b</t>
-  </si>
-  <si>
-    <t>C12H12N2O.a:0.5, Ni:0.5</t>
-  </si>
-  <si>
-    <t>C12H12N2O.8:0.5, Ni:0.5</t>
-  </si>
-  <si>
-    <t>C12H12N2O.5: 0.5, Ni:0.5</t>
+    <t>Bkgd Sample Name</t>
+  </si>
+  <si>
+    <t>(required for auto-reduction)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (comma separated list used for data searches)</t>
+  </si>
+  <si>
+    <t>C12H12N2O</t>
+  </si>
+  <si>
+    <t>Film_array_on_silicon_substrate</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>nano_particle_grid</t>
+  </si>
+  <si>
+    <t>gridscan_mappedin:’filename.csv’</t>
+  </si>
+  <si>
+    <t>Film array on carbon paper</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Co12O12C72H48N24.N:0.95,  H:0.05</t>
+  </si>
+  <si>
+    <t>FeF3C10H8N2.O:0.95,  C:0.05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -351,6 +348,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -389,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -401,6 +405,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,567 +754,668 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:AMJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.1640625" customWidth="1"/>
-    <col min="2" max="2" width="68.5" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AMJ1"/>
+    </row>
+    <row r="2" spans="1:1024" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="AMJ2"/>
+    </row>
+    <row r="3" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="AMJ3"/>
+    </row>
+    <row r="4" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E4"/>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="AMJ4"/>
+    </row>
+    <row r="5" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="AMJ5"/>
+    </row>
+    <row r="6" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="AMJ6"/>
+    </row>
+    <row r="7" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AMJ7"/>
+    </row>
+    <row r="8" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AMJ8"/>
+    </row>
+    <row r="9" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AMJ9"/>
+    </row>
+    <row r="10" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AMJ10"/>
+    </row>
+    <row r="11" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AMJ11"/>
+    </row>
+    <row r="12" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AMJ12"/>
+    </row>
+    <row r="13" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AMJ13"/>
+    </row>
+    <row r="14" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14"/>
+      <c r="AMJ14"/>
+    </row>
+    <row r="15" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15"/>
+      <c r="G15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="H15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15"/>
+      <c r="AMJ15"/>
+    </row>
+    <row r="16" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16"/>
+      <c r="G16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16"/>
+      <c r="AMJ16"/>
+    </row>
+    <row r="17" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17"/>
+      <c r="G17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17"/>
+      <c r="AMJ17"/>
+    </row>
+    <row r="18" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18"/>
+      <c r="G18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18"/>
+      <c r="AMJ18"/>
+    </row>
+    <row r="19" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19"/>
+      <c r="G19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19"/>
+      <c r="AMJ19"/>
+    </row>
+    <row r="20" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="AMJ20"/>
+    </row>
+    <row r="21" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="AMJ21"/>
+    </row>
+    <row r="22" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AMJ22"/>
+    </row>
+    <row r="23" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AMJ23"/>
+    </row>
+    <row r="24" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AMJ24"/>
+    </row>
+    <row r="25" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" t="s">
         <v>95</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
